--- a/FinalProject/FinalProjectTaskBoard.xlsx
+++ b/FinalProject/FinalProjectTaskBoard.xlsx
@@ -3,8 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="Sheet2" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
-  <si>
-    <t>CV FINAL PROJECT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Topic</t>
   </si>
@@ -107,10 +103,27 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>we must make sure our venvs are the same
-- Work in an OOP fashion
-- Use hydra-core for easy configuration</t>
+      <t xml:space="preserve">we must make sure our venvs are the same
+</t>
     </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">- Work in an OOP fashion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>- Use hydra-core for easy configuration</t>
+    </r>
   </si>
   <si>
     <t>Classification Model</t>
@@ -120,6 +133,9 @@
   </si>
   <si>
     <t>Fine-tuning</t>
+  </si>
+  <si>
+    <t>- Bu</t>
   </si>
   <si>
     <t>Evaluate &amp; Test</t>
@@ -133,6 +149,12 @@
   <si>
     <t>- This is our bottleneck
 - Use Ultralytics "simple" library to be efficient and save time</t>
+  </si>
+  <si>
+    <t>Implemet Pipeline</t>
+  </si>
+  <si>
+    <t>- Data loader (load + preprocess) --&gt; OD wrapper (train, evaluate, test) --&gt; post process (NMS, performance structures, visualization)</t>
   </si>
   <si>
     <t>- Decide on metric (IoU for detection metric, CE for class metric)</t>
@@ -174,17 +196,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -221,40 +236,40 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -330,16 +345,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F26" displayName="Event_tasks" name="Event_tasks" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F27" displayName="Event_tasks" name="Event_tasks" id="1">
   <tableColumns count="6">
     <tableColumn name="Topic" id="1"/>
     <tableColumn name="Task" id="2"/>
@@ -552,26 +563,6 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
@@ -583,318 +574,332 @@
     <col customWidth="1" min="2" max="2" width="35.25"/>
     <col customWidth="1" min="3" max="4" width="22.63"/>
     <col customWidth="1" min="5" max="5" width="20.25"/>
-    <col customWidth="1" min="6" max="6" width="110.5"/>
+    <col customWidth="1" min="6" max="6" width="93.88"/>
     <col customWidth="1" min="7" max="7" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="4" t="s">
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="4" t="s">
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="4" t="s">
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="8"/>
     </row>
     <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" ht="22.5" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="4" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" ht="22.5" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" ht="22.5" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" ht="22.5" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="4" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" ht="22.5" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="4" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" ht="22.5" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" ht="22.5" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" ht="22.5" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" ht="22.5" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" ht="22.5" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" ht="22.5" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" ht="22.5" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E26">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E27">
       <formula1>"Optional,Mandatory"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D26">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D27">
       <formula1>"Noy,Gideon"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:B26 F2:F26"/>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C26">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:B27 F2:F27"/>
+    <dataValidation type="list" allowBlank="1" sqref="C2:C27">
       <formula1>"In progress,Completed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/FinalProject/FinalProjectTaskBoard.xlsx
+++ b/FinalProject/FinalProjectTaskBoard.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3ef24338eb9c572/ComputerScienceMSc/Courses/ComputerVision/FinalProject/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_CAB2C60C1E43C9D6406872730FF98EA2010AC6A3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E2D8D01-64E7-47CE-ADC8-E7D63D24B8F7}"/>
+  <bookViews>
+    <workbookView xWindow="22932" yWindow="-4416" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet2" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Topic</t>
   </si>
@@ -76,51 +85,48 @@
     <t>Setup Environment</t>
   </si>
   <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">- Setup Python environment
 - </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">IMPORTANT: </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">we must make sure our venvs are the same
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">- Work in an OOP fashion
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>- Use hydra-core for easy configuration</t>
     </r>
@@ -135,9 +141,6 @@
     <t>Fine-tuning</t>
   </si>
   <si>
-    <t>- Bu</t>
-  </si>
-  <si>
     <t>Evaluate &amp; Test</t>
   </si>
   <si>
@@ -152,9 +155,6 @@
   </si>
   <si>
     <t>Implemet Pipeline</t>
-  </si>
-  <si>
-    <t>- Data loader (load + preprocess) --&gt; OD wrapper (train, evaluate, test) --&gt; post process (NMS, performance structures, visualization)</t>
   </si>
   <si>
     <t>- Decide on metric (IoU for detection metric, CE for class metric)</t>
@@ -190,128 +190,151 @@
     <t>- README.md
 - Presentation
 - Results</t>
+  </si>
+  <si>
+    <t>- Data loader (load + preprocess) --&gt; YOLO (wrapper?)  --&gt; post process (NMS, relevant classes, prepare for classifier) --&gt; Classifier --&gt; post process</t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>- Test on unseen data</t>
+  </si>
+  <si>
+    <t>Noy</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF5B3F86"/>
-          <bgColor rgb="FF5B3F86"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6F8F9"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
     <dxf>
       <border>
@@ -329,20 +352,48 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B3F86"/>
+          <bgColor rgb="FF5B3F86"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="4" pivot="0" name="Sheet2-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    <tableStyle name="Sheet2-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" size="0" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,21 +401,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F27" displayName="Event_tasks" name="Event_tasks" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Event_tasks" displayName="Event_tasks" ref="A1:F26" headerRowDxfId="0">
   <tableColumns count="6">
-    <tableColumn name="Topic" id="1"/>
-    <tableColumn name="Task" id="2"/>
-    <tableColumn name="Status" id="3"/>
-    <tableColumn name="Owner" id="4"/>
-    <tableColumn name="Requirements" id="5"/>
-    <tableColumn name="Notes" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Topic"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Status"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Owner"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Requirements"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notes"/>
   </tableColumns>
-  <tableStyleInfo name="Sheet2-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Sheet2-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -554,358 +605,351 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.13"/>
-    <col customWidth="1" min="2" max="2" width="35.25"/>
-    <col customWidth="1" min="3" max="4" width="22.63"/>
-    <col customWidth="1" min="5" max="5" width="20.25"/>
-    <col customWidth="1" min="6" max="6" width="93.88"/>
-    <col customWidth="1" min="7" max="7" width="15.13"/>
+    <col min="1" max="1" width="40.08984375" customWidth="1"/>
+    <col min="2" max="2" width="35.26953125" customWidth="1"/>
+    <col min="3" max="4" width="22.6328125" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" customWidth="1"/>
+    <col min="6" max="6" width="93.90625" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="22.5" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="3" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="22.5" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3" t="s">
+    <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="12" t="s">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="3" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" ht="22.5" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" ht="22.5" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" ht="22.5" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" ht="22.5" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" ht="22.5" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" ht="22.5" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" ht="22.5" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" ht="22.5" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E27">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E26" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Optional,Mandatory"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D27">
+    <dataValidation type="list" allowBlank="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Noy,Gideon"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:B27 F2:F27"/>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C27">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="F2:F26 B2:B26" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" sqref="C2:C26" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In progress,Completed"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>